--- a/mcook_expenses.xlsx
+++ b/mcook_expenses.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,27 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>06/29/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TIthing</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mcook_expenses.xlsx
+++ b/mcook_expenses.xlsx
@@ -1,141 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8400e53c383ccc98/Documents/ExpenseWeb/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{91D0A7B5-C430-4DD6-84C9-F8C1114AA991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C081136F-59D0-4F8A-8230-D0A938ABA04B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Expenses" sheetId="1" r:id="rId1"/>
-    <sheet name="Totals" sheetId="2" r:id="rId2"/>
+    <sheet name="Expenses" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Totals" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Totals</t>
-  </si>
-  <si>
-    <t>WannaDos (consectutively subtracting as list develops)</t>
-  </si>
-  <si>
-    <t>Deposits</t>
-  </si>
-  <si>
-    <t>Tithing</t>
-  </si>
-  <si>
-    <t>5% Dep</t>
-  </si>
-  <si>
-    <t>Expenses</t>
-  </si>
-  <si>
-    <t>EM Fund</t>
-  </si>
-  <si>
-    <t>5% D-E</t>
-  </si>
-  <si>
-    <t>Dep-Exp</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>80% D-E</t>
-  </si>
-  <si>
-    <t>Gifts</t>
-  </si>
-  <si>
-    <t>Spend</t>
-  </si>
-  <si>
-    <t>^^^^^^^^^^^^^^^</t>
-  </si>
-  <si>
-    <t>Feel free to change all of the above values, and the equations in F, respectively</t>
-  </si>
-  <si>
-    <t>Welcome! This is your Expense Tracker. View Total Expenses, and Deposits below in the sheet</t>
-  </si>
-  <si>
-    <t>titled "Totals", where you can also budget your finances. Here are your entered forms:</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,13 +58,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59996337778862885"/>
+        <fgColor theme="3" tint="0.5999633777886288"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -168,28 +78,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -222,36 +142,703 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Totals (%)</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </txPr>
+    </title>
+    <plotArea>
+      <layout>
+        <manualLayout>
+          <layoutTarget val="inner"/>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.2985627734033246"/>
+          <y val="0.171712962962963"/>
+          <w val="0.4028746719160105"/>
+          <h val="0.6714577865266842"/>
+        </manualLayout>
+      </layout>
+      <doughnutChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <dPt>
+            <idx val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="1"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="3"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="4"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <cat>
+            <strRef>
+              <f>Totals!$L$15:$L$19</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Food/Drink</v>
+                </pt>
+                <pt idx="1">
+                  <v>Entertainment</v>
+                </pt>
+                <pt idx="2">
+                  <v>Health</v>
+                </pt>
+                <pt idx="3">
+                  <v>Shopping</v>
+                </pt>
+                <pt idx="4">
+                  <v>Other</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Totals!$M$15:$M$19</f>
+              <numCache>
+                <formatCode>0%</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+          <showLeaderLines val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+        <holeSize val="75"/>
+      </doughnutChart>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </txPr>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+  <spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Totals ($)</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </txPr>
+    </title>
+    <plotArea>
+      <layout>
+        <manualLayout>
+          <layoutTarget val="inner"/>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.3615510529050192"/>
+          <y val="0.2381380417335474"/>
+          <w val="0.290607992766971"/>
+          <h val="0.5443652127753694"/>
+        </manualLayout>
+      </layout>
+      <doughnutChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <dPt>
+            <idx val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="1"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="3"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="4"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <cat>
+            <strRef>
+              <f>Totals!$L$3:$L$7</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Food/Drink</v>
+                </pt>
+                <pt idx="1">
+                  <v>Entertainment</v>
+                </pt>
+                <pt idx="2">
+                  <v>Health</v>
+                </pt>
+                <pt idx="3">
+                  <v>Shopping</v>
+                </pt>
+                <pt idx="4">
+                  <v>Other</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Totals!$M$3:$M$7</f>
+              <numCache>
+                <formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+          <showLeaderLines val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+        <holeSize val="75"/>
+      </doughnutChart>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </txPr>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+  <spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>603249</colOff>
+      <row>12</row>
+      <rowOff>19049</rowOff>
+    </from>
+    <to>
+      <col>17</col>
+      <colOff>41274</colOff>
+      <row>23</row>
+      <rowOff>28574</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>584199</colOff>
+      <row>0</row>
+      <rowOff>161925</rowOff>
+    </from>
+    <to>
+      <col>17</col>
+      <colOff>22224</colOff>
+      <row>11</row>
+      <rowOff>114300</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5407B88-2E87-4228-8CAF-5C843E1FFAD7}" name="Table1" displayName="Table1" ref="A1:E1000" totalsRowShown="0">
-  <autoFilter ref="A1:E1000" xr:uid="{E5407B88-2E87-4228-8CAF-5C843E1FFAD7}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E1000" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:E1000">
+    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="2" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="3" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="4" hiddenButton="1" showButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8A1B63AB-E12D-4520-B55B-E6BC767C0753}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{A751D0CD-A4FD-4B6B-91DE-ABFB02056B04}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{0CBBC330-0C92-452C-AF84-6715FC3370BB}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{CF06E6FE-243F-496B-A04C-62293A086D67}" name="Amount" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{36964917-DCC3-4C57-BEA4-6EEE8D3557A9}" name="Note"/>
+    <tableColumn id="1" name="Date"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Amount" dataCellStyle="Currency"/>
+    <tableColumn id="5" name="Note"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -541,237 +1128,559 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="14" width="10.26953125" customWidth="1"/>
-    <col min="15" max="104" width="11.26953125" customWidth="1"/>
-    <col min="105" max="1004" width="12.26953125" customWidth="1"/>
-    <col min="1005" max="10004" width="13.26953125" customWidth="1"/>
-    <col min="10005" max="16384" width="14.26953125" customWidth="1"/>
+    <col width="13.08984375" customWidth="1" min="1" max="1"/>
+    <col width="10.54296875" customWidth="1" min="2" max="2"/>
+    <col width="21.26953125" customWidth="1" min="3" max="3"/>
+    <col width="12.7265625" customWidth="1" style="14" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="10.26953125" customWidth="1" min="6" max="6"/>
+    <col width="13.1796875" customWidth="1" min="7" max="7"/>
+    <col width="10.26953125" customWidth="1" min="8" max="14"/>
+    <col width="11.26953125" customWidth="1" min="15" max="104"/>
+    <col width="12.26953125" customWidth="1" min="105" max="1004"/>
+    <col width="13.26953125" customWidth="1" min="1005" max="10004"/>
+    <col width="14.26953125" customWidth="1" min="10005" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2"/>
-      <c r="G2" s="10"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3"/>
-      <c r="G3" s="10"/>
-      <c r="J3" s="9"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Welcome! This is your Expense Tracker. View Total Expenses, and Deposits below in the sheet</t>
+        </is>
+      </c>
+      <c r="G2" s="10" t="n"/>
+      <c r="J2" s="14" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>titled "Totals", where you can also budget your finances. Here are your entered forms:</t>
+        </is>
+      </c>
+      <c r="G3" s="10" t="n"/>
+      <c r="J3" s="14" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>08/18/2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Starting Balance</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5436.6</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>08/18/2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Food/Drink</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Piada</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>27.07</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>08/18/2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Food/Drink</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Dunkin'</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>08/18/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Food/Drink</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Dunkin'</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>08/18/2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Textbook</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>08/18/2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Oho sunglasses</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>08/18/2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Food/Drink</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Rinnova</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A3 G2:G3 A7:A1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+  <conditionalFormatting sqref="A2:A3 A7:A1048576 G2:G3">
+    <cfRule type="cellIs" priority="1" operator="between" dxfId="0">
       <formula>45992</formula>
       <formula>46022</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+    <cfRule type="cellIs" priority="2" operator="between" dxfId="0">
       <formula>45931</formula>
       <formula>45961</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" priority="3" operator="between" dxfId="0">
       <formula>45870</formula>
       <formula>45900</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+    <cfRule type="cellIs" priority="4" operator="between" dxfId="0">
       <formula>45809</formula>
       <formula>"06/31/2025"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col width="10.08984375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="10.08984375" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="12">
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Totals</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>WannaDos (consectutively subtracting as list develops)</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="n"/>
+      <c r="F1" s="8" t="n"/>
+      <c r="G1" s="8" t="n"/>
+      <c r="H1" s="8" t="n"/>
+      <c r="I1" s="8" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>Deposits</t>
+        </is>
+      </c>
+      <c r="B2" s="15">
         <f>SUMIFS(Expenses!D2:D996,Expenses!B2:B996,"Deposit")</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7">
+        <v/>
+      </c>
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>Tithing</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>5% Dep</t>
+        </is>
+      </c>
+      <c r="F2" s="16">
         <f>B2*0.05</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2">
+        <v/>
+      </c>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="4" t="n"/>
+      <c r="I2" s="4" t="n"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="B3" s="17">
         <f>SUM(
   SUMIFS(Expenses!D2:D996,Expenses!B2:B996, "Food/Drink"),
-  SUMIFS(Expenses!D2:D996,Expenses!B2:B996, "Entertainment"),
+  SUMIFS(Expenses!D2:D996,Expenses!B2:B996, "Entertainment"), SUMIFS(Expenses!D2:D996, Expenses!B2:B996, "Shopping"),
   SUMIFS(Expenses!D2:D996,Expenses!B2:B996, "Utilities"),
   SUMIFS(Expenses!D2:D996,Expenses!B2:B996, "Other")
 )</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3">
+        <v/>
+      </c>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>EM Fund</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>5% D-E</t>
+        </is>
+      </c>
+      <c r="F3" s="18">
         <f>(B4-F2)*0.05</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5">
+        <v/>
+      </c>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Food/Drink</t>
+        </is>
+      </c>
+      <c r="M3" s="14">
+        <f>SUMIFS(Expenses!D4:D1000, Expenses!B4:B1000, "Food/Drink")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Dep-Exp</t>
+        </is>
+      </c>
+      <c r="B4" s="19">
         <f>B2-B3</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="12">
+        <v/>
+      </c>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>80% D-E</t>
+        </is>
+      </c>
+      <c r="F4" s="15">
         <f>(F2/0.05)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="11">
+        <v/>
+      </c>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="4" t="n"/>
+      <c r="I4" s="4" t="n"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="M4" s="14">
+        <f>SUMIFS(Expenses!D4:D1000, Expenses!B4:B1000, "Entertainment")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Gifts</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5% D-E</t>
+        </is>
+      </c>
+      <c r="F5" s="20">
         <f>(B4-F2-F3)*0.05</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7">
+        <v/>
+      </c>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="n"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="M5" s="14">
+        <f>SUMIFS(Expenses!D4:D1000, Expenses!B4:B1000, "Health")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Spend</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>5% D-E</t>
+        </is>
+      </c>
+      <c r="F6" s="16">
         <f>(B4-F2-F3-F5)*0.05</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D9" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D10" t="s">
-        <v>19</v>
+        <v/>
+      </c>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="4" t="n"/>
+      <c r="I6" s="4" t="n"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="M6" s="14">
+        <f>SUMIFS(Expenses!D4:D1000, Expenses!B4:B1000, "Shopping")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="M7" s="14">
+        <f>SUMIFS(Expenses!D4:D1000, Expenses!B4:B1000, "Other")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>^^^^^^^^^^^^^^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Feel free to change all of the above values, and the equations in F, respectively</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Summary:</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Food/Drink</t>
+        </is>
+      </c>
+      <c r="M15" s="13">
+        <f>SUMIFS(Expenses!D4:D1000, Expenses!B4:B1000, "Food/Drink")/100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="M16" s="13">
+        <f>SUMIFS(Expenses!D4:D1000, Expenses!B4:B1000, "Entertainment")/100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="M17" s="13">
+        <f>SUMIFS(Expenses!D4:D1000, Expenses!B4:B1000, "Health")/100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="M18" s="13">
+        <f>SUMIFS(Expenses!D4:D1000, Expenses!B4:B1000, "Shopping")/100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="M19" s="13">
+        <f>SUMIFS(Expenses!D4:D1000, Expenses!B4:B1000, "Other")/100</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mcook_expenses.xlsx
+++ b/mcook_expenses.xlsx
@@ -1133,7 +1133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="G25" sqref="G25:H30"/>
@@ -1351,6 +1351,152 @@
         <v>5.25</v>
       </c>
       <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Food/Drink</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DG Trip</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Donuts</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>nail clippers + gift for Adeline</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Food/Drink</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Beans and Cream</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Second Act</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sweater</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Food/Drink</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Dunkin'</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Molly + I</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Food/Drink</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Cupcake + cookie</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3 A7:A1048576 G2:G3">
